--- a/ontologies/turbo_obib_ontodog_template.xlsx
+++ b/ontologies/turbo_obib_ontodog_template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark Miller\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark Miller\Turbo-Ontology\ontologies\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="13215"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4399" uniqueCount="3737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4401" uniqueCount="3737">
   <si>
     <t>Source ontology term IRI</t>
   </si>
@@ -11341,7 +11341,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -11376,7 +11376,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -11588,7 +11588,10 @@
   <dimension ref="A1:E1721"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B1109" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D1140" sqref="D1140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -21242,7 +21245,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="1121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1121" s="2" t="s">
         <v>1169</v>
       </c>
@@ -21250,7 +21253,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="1122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1122" s="2" t="s">
         <v>2992</v>
       </c>
@@ -21258,7 +21261,7 @@
         <v>2993</v>
       </c>
     </row>
-    <row r="1123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1123" s="2" t="s">
         <v>1783</v>
       </c>
@@ -21266,7 +21269,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="1124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1124" s="2" t="s">
         <v>51</v>
       </c>
@@ -21277,7 +21280,7 @@
         <v>3736</v>
       </c>
     </row>
-    <row r="1125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1125" s="2" t="s">
         <v>45</v>
       </c>
@@ -21288,7 +21291,7 @@
         <v>3736</v>
       </c>
     </row>
-    <row r="1126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1126" s="2" t="s">
         <v>411</v>
       </c>
@@ -21299,7 +21302,7 @@
         <v>3736</v>
       </c>
     </row>
-    <row r="1127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1127" s="2" t="s">
         <v>2093</v>
       </c>
@@ -21310,7 +21313,7 @@
         <v>3736</v>
       </c>
     </row>
-    <row r="1128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1128" s="2" t="s">
         <v>537</v>
       </c>
@@ -21318,7 +21321,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="1129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1129" s="2" t="s">
         <v>479</v>
       </c>
@@ -21329,7 +21332,7 @@
         <v>3736</v>
       </c>
     </row>
-    <row r="1130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1130" s="2" t="s">
         <v>3436</v>
       </c>
@@ -21340,7 +21343,7 @@
         <v>3736</v>
       </c>
     </row>
-    <row r="1131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1131" s="2" t="s">
         <v>15</v>
       </c>
@@ -21351,7 +21354,7 @@
         <v>3736</v>
       </c>
     </row>
-    <row r="1132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1132" s="2" t="s">
         <v>75</v>
       </c>
@@ -21359,7 +21362,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="1133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1133" s="2" t="s">
         <v>3006</v>
       </c>
@@ -21367,15 +21370,21 @@
         <v>3007</v>
       </c>
     </row>
-    <row r="1134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1134" s="2" t="s">
         <v>3042</v>
       </c>
       <c r="B1134" s="2" t="s">
         <v>3043</v>
       </c>
-    </row>
-    <row r="1135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C1134" s="2" t="s">
+        <v>3736</v>
+      </c>
+      <c r="E1134" s="2" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1135" s="2" t="s">
         <v>3332</v>
       </c>
@@ -21383,7 +21392,7 @@
         <v>3333</v>
       </c>
     </row>
-    <row r="1136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1136" s="2" t="s">
         <v>2613</v>
       </c>

--- a/ontologies/turbo_obib_ontodog_template.xlsx
+++ b/ontologies/turbo_obib_ontodog_template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4401" uniqueCount="3737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4421" uniqueCount="3737">
   <si>
     <t>Source ontology term IRI</t>
   </si>
@@ -11588,10 +11588,10 @@
   <dimension ref="A1:E1721"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B1109" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B1299" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1140" sqref="D1140"/>
+      <selection pane="bottomRight" activeCell="A1324" sqref="A1324:XFD1324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -14237,6 +14237,9 @@
       <c r="B312" s="2" t="s">
         <v>2370</v>
       </c>
+      <c r="C312" s="2" t="s">
+        <v>3736</v>
+      </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
@@ -18082,7 +18085,7 @@
         <v>3423</v>
       </c>
     </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A753" s="2" t="s">
         <v>3016</v>
       </c>
@@ -18090,47 +18093,62 @@
         <v>3017</v>
       </c>
     </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A754" s="2" t="s">
         <v>2335</v>
       </c>
       <c r="B754" s="2" t="s">
         <v>2336</v>
       </c>
-    </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C754" s="2" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="755" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A755" s="2" t="s">
         <v>2337</v>
       </c>
       <c r="B755" s="2" t="s">
         <v>2338</v>
       </c>
-    </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C755" s="2" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="756" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A756" s="2" t="s">
         <v>2339</v>
       </c>
       <c r="B756" s="2" t="s">
         <v>2340</v>
       </c>
-    </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C756" s="2" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="757" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A757" s="2" t="s">
         <v>2341</v>
       </c>
       <c r="B757" s="2" t="s">
         <v>2342</v>
       </c>
-    </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C757" s="2" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="758" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A758" s="2" t="s">
         <v>2343</v>
       </c>
       <c r="B758" s="2" t="s">
         <v>2344</v>
       </c>
-    </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C758" s="2" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="759" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A759" s="2" t="s">
         <v>1507</v>
       </c>
@@ -18138,7 +18156,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A760" s="2" t="s">
         <v>101</v>
       </c>
@@ -18146,7 +18164,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A761" s="2" t="s">
         <v>103</v>
       </c>
@@ -18154,7 +18172,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A762" s="2" t="s">
         <v>2505</v>
       </c>
@@ -18162,7 +18180,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A763" s="2" t="s">
         <v>2509</v>
       </c>
@@ -18170,7 +18188,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A764" s="2" t="s">
         <v>2511</v>
       </c>
@@ -18178,7 +18196,7 @@
         <v>2512</v>
       </c>
     </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A765" s="2" t="s">
         <v>2279</v>
       </c>
@@ -18186,7 +18204,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A766" s="2" t="s">
         <v>2513</v>
       </c>
@@ -18194,7 +18212,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A767" s="2" t="s">
         <v>2281</v>
       </c>
@@ -18202,7 +18220,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A768" s="2" t="s">
         <v>639</v>
       </c>
@@ -18961,6 +18979,9 @@
       <c r="B856" s="2" t="s">
         <v>2372</v>
       </c>
+      <c r="C856" s="2" t="s">
+        <v>3736</v>
+      </c>
     </row>
     <row r="857" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A857" s="2" t="s">
@@ -18969,6 +18990,9 @@
       <c r="B857" s="2" t="s">
         <v>2374</v>
       </c>
+      <c r="C857" s="2" t="s">
+        <v>3736</v>
+      </c>
     </row>
     <row r="858" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A858" s="2" t="s">
@@ -21817,7 +21841,7 @@
         <v>3736</v>
       </c>
     </row>
-    <row r="1185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1185" s="2" t="s">
         <v>2461</v>
       </c>
@@ -21825,7 +21849,7 @@
         <v>2462</v>
       </c>
     </row>
-    <row r="1186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1186" s="2" t="s">
         <v>1761</v>
       </c>
@@ -21833,39 +21857,51 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="1187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1187" s="2" t="s">
         <v>2361</v>
       </c>
       <c r="B1187" s="2" t="s">
         <v>2362</v>
       </c>
-    </row>
-    <row r="1188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1187" s="2" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1188" s="2" t="s">
         <v>2365</v>
       </c>
       <c r="B1188" s="2" t="s">
         <v>2366</v>
       </c>
-    </row>
-    <row r="1189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1188" s="2" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1189" s="2" t="s">
         <v>2363</v>
       </c>
       <c r="B1189" s="2" t="s">
         <v>2364</v>
       </c>
-    </row>
-    <row r="1190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1189" s="2" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1190" s="2" t="s">
         <v>2367</v>
       </c>
       <c r="B1190" s="2" t="s">
         <v>2368</v>
       </c>
-    </row>
-    <row r="1191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1190" s="2" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1191" s="2" t="s">
         <v>589</v>
       </c>
@@ -21873,71 +21909,95 @@
         <v>590</v>
       </c>
     </row>
-    <row r="1192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1192" s="2" t="s">
         <v>2353</v>
       </c>
       <c r="B1192" s="2" t="s">
         <v>2354</v>
       </c>
-    </row>
-    <row r="1193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1192" s="2" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1193" s="2" t="s">
         <v>2357</v>
       </c>
       <c r="B1193" s="2" t="s">
         <v>2358</v>
       </c>
-    </row>
-    <row r="1194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1193" s="2" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1194" s="2" t="s">
         <v>2355</v>
       </c>
       <c r="B1194" s="2" t="s">
         <v>2356</v>
       </c>
-    </row>
-    <row r="1195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1194" s="2" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1195" s="2" t="s">
         <v>2359</v>
       </c>
       <c r="B1195" s="2" t="s">
         <v>2360</v>
       </c>
-    </row>
-    <row r="1196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1195" s="2" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1196" s="2" t="s">
         <v>2345</v>
       </c>
       <c r="B1196" s="2" t="s">
         <v>2346</v>
       </c>
-    </row>
-    <row r="1197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1196" s="2" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1197" s="2" t="s">
         <v>2349</v>
       </c>
       <c r="B1197" s="2" t="s">
         <v>2350</v>
       </c>
-    </row>
-    <row r="1198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1197" s="2" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1198" s="2" t="s">
         <v>2347</v>
       </c>
       <c r="B1198" s="2" t="s">
         <v>2348</v>
       </c>
-    </row>
-    <row r="1199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1198" s="2" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1199" s="2" t="s">
         <v>2351</v>
       </c>
       <c r="B1199" s="2" t="s">
         <v>2352</v>
       </c>
-    </row>
-    <row r="1200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1199" s="2" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1200" s="2" t="s">
         <v>1497</v>
       </c>
@@ -22865,9 +22925,6 @@
       <c r="B1308" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="C1308" s="2" t="s">
-        <v>3736</v>
-      </c>
     </row>
     <row r="1309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1309" s="2" t="s">
@@ -23013,6 +23070,9 @@
       </c>
       <c r="B1324" s="2" t="s">
         <v>3009</v>
+      </c>
+      <c r="C1324" s="2" t="s">
+        <v>3736</v>
       </c>
     </row>
     <row r="1325" spans="1:3" x14ac:dyDescent="0.2">

--- a/ontologies/turbo_obib_ontodog_template.xlsx
+++ b/ontologies/turbo_obib_ontodog_template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4421" uniqueCount="3737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4453" uniqueCount="3737">
   <si>
     <t>Source ontology term IRI</t>
   </si>
@@ -11588,10 +11588,10 @@
   <dimension ref="A1:E1721"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B1299" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B1226" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1324" sqref="A1324:XFD1324"/>
+      <selection pane="bottomRight" activeCell="B1251" sqref="B1251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -12000,6 +12000,9 @@
       <c r="B47" s="2" t="s">
         <v>328</v>
       </c>
+      <c r="C47" s="2" t="s">
+        <v>3736</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
@@ -12008,6 +12011,9 @@
       <c r="B48" s="2" t="s">
         <v>3407</v>
       </c>
+      <c r="C48" s="2" t="s">
+        <v>3736</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
@@ -12285,6 +12291,9 @@
       <c r="B80" s="2" t="s">
         <v>3409</v>
       </c>
+      <c r="C80" s="2" t="s">
+        <v>3736</v>
+      </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
@@ -12293,6 +12302,9 @@
       <c r="B81" s="2" t="s">
         <v>3033</v>
       </c>
+      <c r="C81" s="2" t="s">
+        <v>3736</v>
+      </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
@@ -12538,6 +12550,9 @@
       <c r="B109" s="2" t="s">
         <v>3411</v>
       </c>
+      <c r="C109" s="2" t="s">
+        <v>3736</v>
+      </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
@@ -12546,6 +12561,9 @@
       <c r="B110" s="2" t="s">
         <v>3035</v>
       </c>
+      <c r="C110" s="2" t="s">
+        <v>3736</v>
+      </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
@@ -12554,6 +12572,9 @@
       <c r="B111" s="2" t="s">
         <v>3413</v>
       </c>
+      <c r="C111" s="2" t="s">
+        <v>3736</v>
+      </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
@@ -12619,6 +12640,9 @@
       <c r="B118" s="2" t="s">
         <v>662</v>
       </c>
+      <c r="C118" s="2" t="s">
+        <v>3736</v>
+      </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
@@ -12627,6 +12651,9 @@
       <c r="B119" s="2" t="s">
         <v>668</v>
       </c>
+      <c r="C119" s="2" t="s">
+        <v>3736</v>
+      </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
@@ -12991,6 +13018,9 @@
       <c r="B160" s="2" t="s">
         <v>3037</v>
       </c>
+      <c r="C160" s="2" t="s">
+        <v>3736</v>
+      </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
@@ -13260,7 +13290,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>709</v>
       </c>
@@ -13268,7 +13298,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>691</v>
       </c>
@@ -13276,7 +13306,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>3194</v>
       </c>
@@ -13284,7 +13314,7 @@
         <v>3195</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>2549</v>
       </c>
@@ -13292,15 +13322,18 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>3172</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>3173</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C197" s="2" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>2563</v>
       </c>
@@ -13308,7 +13341,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>2655</v>
       </c>
@@ -13316,7 +13349,7 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>283</v>
       </c>
@@ -13324,7 +13357,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>2393</v>
       </c>
@@ -13332,7 +13365,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>1143</v>
       </c>
@@ -13340,7 +13373,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>1155</v>
       </c>
@@ -13348,7 +13381,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>789</v>
       </c>
@@ -13356,7 +13389,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>129</v>
       </c>
@@ -13364,7 +13397,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>3232</v>
       </c>
@@ -13372,7 +13405,7 @@
         <v>3233</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>237</v>
       </c>
@@ -13380,7 +13413,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>679</v>
       </c>
@@ -13548,6 +13581,9 @@
       <c r="B227" s="2" t="s">
         <v>652</v>
       </c>
+      <c r="C227" s="2" t="s">
+        <v>3736</v>
+      </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
@@ -13556,6 +13592,9 @@
       <c r="B228" s="2" t="s">
         <v>660</v>
       </c>
+      <c r="C228" s="2" t="s">
+        <v>3736</v>
+      </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
@@ -13662,7 +13701,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>903</v>
       </c>
@@ -13670,7 +13709,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>905</v>
       </c>
@@ -13678,7 +13717,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>1363</v>
       </c>
@@ -13686,7 +13725,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>2493</v>
       </c>
@@ -13694,7 +13733,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>811</v>
       </c>
@@ -13702,7 +13741,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>3430</v>
       </c>
@@ -13710,7 +13749,7 @@
         <v>3431</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>335</v>
       </c>
@@ -13718,15 +13757,18 @@
         <v>336</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>3414</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>3415</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C248" s="2" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>279</v>
       </c>
@@ -13734,7 +13776,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>809</v>
       </c>
@@ -13742,7 +13784,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
         <v>805</v>
       </c>
@@ -13750,7 +13792,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
         <v>2727</v>
       </c>
@@ -13758,7 +13800,7 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
         <v>2383</v>
       </c>
@@ -13766,7 +13808,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>1873</v>
       </c>
@@ -13774,7 +13816,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>1809</v>
       </c>
@@ -13782,7 +13824,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>1913</v>
       </c>
@@ -16167,6 +16209,9 @@
       <c r="B533" s="2" t="s">
         <v>724</v>
       </c>
+      <c r="C533" s="2" t="s">
+        <v>3736</v>
+      </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A534" s="2" t="s">
@@ -16536,6 +16581,9 @@
       <c r="B575" s="2" t="s">
         <v>696</v>
       </c>
+      <c r="C575" s="2" t="s">
+        <v>3736</v>
+      </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A576" s="2" t="s">
@@ -16544,6 +16592,9 @@
       <c r="B576" s="2" t="s">
         <v>3417</v>
       </c>
+      <c r="C576" s="2" t="s">
+        <v>3736</v>
+      </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A577" s="2" t="s">
@@ -18092,6 +18143,9 @@
       <c r="B753" s="2" t="s">
         <v>3017</v>
       </c>
+      <c r="C753" s="2" t="s">
+        <v>3736</v>
+      </c>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A754" s="2" t="s">
@@ -19281,6 +19335,9 @@
       <c r="B887" s="2" t="s">
         <v>3419</v>
       </c>
+      <c r="C887" s="2" t="s">
+        <v>3736</v>
+      </c>
     </row>
     <row r="888" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A888" s="2" t="s">
@@ -19357,7 +19414,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="897" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A897" s="2" t="s">
         <v>1053</v>
       </c>
@@ -19365,7 +19422,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="898" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A898" s="2" t="s">
         <v>3164</v>
       </c>
@@ -19373,31 +19430,40 @@
         <v>3165</v>
       </c>
     </row>
-    <row r="899" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A899" s="2" t="s">
         <v>3420</v>
       </c>
       <c r="B899" s="2" t="s">
         <v>3421</v>
       </c>
-    </row>
-    <row r="900" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C899" s="2" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="900" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A900" s="2" t="s">
         <v>341</v>
       </c>
       <c r="B900" s="2" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="901" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C900" s="2" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="901" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A901" s="2" t="s">
         <v>343</v>
       </c>
       <c r="B901" s="2" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="902" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C901" s="2" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="902" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A902" s="2" t="s">
         <v>2711</v>
       </c>
@@ -19405,7 +19471,7 @@
         <v>2712</v>
       </c>
     </row>
-    <row r="903" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A903" s="2" t="s">
         <v>3250</v>
       </c>
@@ -19413,7 +19479,7 @@
         <v>3251</v>
       </c>
     </row>
-    <row r="904" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A904" s="2" t="s">
         <v>953</v>
       </c>
@@ -19421,7 +19487,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="905" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A905" s="2" t="s">
         <v>3338</v>
       </c>
@@ -19429,7 +19495,7 @@
         <v>3339</v>
       </c>
     </row>
-    <row r="906" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A906" s="2" t="s">
         <v>1061</v>
       </c>
@@ -19437,7 +19503,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="907" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A907" s="2" t="s">
         <v>1065</v>
       </c>
@@ -19445,7 +19511,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="908" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A908" s="2" t="s">
         <v>363</v>
       </c>
@@ -19453,7 +19519,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="909" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A909" s="2" t="s">
         <v>3226</v>
       </c>
@@ -19461,7 +19527,7 @@
         <v>3227</v>
       </c>
     </row>
-    <row r="910" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A910" s="2" t="s">
         <v>3316</v>
       </c>
@@ -19469,7 +19535,7 @@
         <v>3317</v>
       </c>
     </row>
-    <row r="911" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A911" s="2" t="s">
         <v>1083</v>
       </c>
@@ -19477,7 +19543,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="912" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A912" s="2" t="s">
         <v>1087</v>
       </c>
@@ -20388,6 +20454,9 @@
       <c r="B1013" s="2" t="s">
         <v>720</v>
       </c>
+      <c r="C1013" s="2" t="s">
+        <v>3736</v>
+      </c>
     </row>
     <row r="1014" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1014" s="2" t="s">
@@ -20486,7 +20555,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="1025" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1025" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1025" s="2" t="s">
         <v>1355</v>
       </c>
@@ -20494,7 +20563,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="1026" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1026" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1026" s="2" t="s">
         <v>1369</v>
       </c>
@@ -20502,7 +20571,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="1027" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1027" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1027" s="2" t="s">
         <v>313</v>
       </c>
@@ -20510,15 +20579,18 @@
         <v>314</v>
       </c>
     </row>
-    <row r="1028" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1028" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1028" s="2" t="s">
         <v>725</v>
       </c>
       <c r="B1028" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="1029" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1028" s="2" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1029" s="2" t="s">
         <v>3276</v>
       </c>
@@ -20526,7 +20598,7 @@
         <v>3277</v>
       </c>
     </row>
-    <row r="1030" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1030" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1030" s="2" t="s">
         <v>2527</v>
       </c>
@@ -20534,7 +20606,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="1031" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1031" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1031" s="2" t="s">
         <v>2629</v>
       </c>
@@ -20542,7 +20614,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="1032" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1032" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1032" s="2" t="s">
         <v>1109</v>
       </c>
@@ -20550,7 +20622,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="1033" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1033" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1033" s="2" t="s">
         <v>1111</v>
       </c>
@@ -20558,7 +20630,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="1034" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1034" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1034" s="2" t="s">
         <v>1161</v>
       </c>
@@ -20566,7 +20638,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="1035" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1035" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1035" s="2" t="s">
         <v>1597</v>
       </c>
@@ -20574,7 +20646,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="1036" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1036" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1036" s="2" t="s">
         <v>3270</v>
       </c>
@@ -20582,7 +20654,7 @@
         <v>3271</v>
       </c>
     </row>
-    <row r="1037" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1037" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1037" s="2" t="s">
         <v>2611</v>
       </c>
@@ -20590,7 +20662,7 @@
         <v>2612</v>
       </c>
     </row>
-    <row r="1038" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1038" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1038" s="2" t="s">
         <v>329</v>
       </c>
@@ -20598,7 +20670,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="1039" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1039" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1039" s="2" t="s">
         <v>229</v>
       </c>
@@ -20606,7 +20678,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="1040" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1040" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1040" s="2" t="s">
         <v>2871</v>
       </c>
@@ -21004,7 +21076,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="1089" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1089" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1089" s="2" t="s">
         <v>2411</v>
       </c>
@@ -21012,7 +21084,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="1090" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1090" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1090" s="2" t="s">
         <v>3334</v>
       </c>
@@ -21020,7 +21092,7 @@
         <v>3335</v>
       </c>
     </row>
-    <row r="1091" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1091" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1091" s="2" t="s">
         <v>309</v>
       </c>
@@ -21028,7 +21100,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="1092" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1092" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1092" s="2" t="s">
         <v>1141</v>
       </c>
@@ -21036,15 +21108,18 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="1093" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1093" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1093" s="2" t="s">
         <v>663</v>
       </c>
       <c r="B1093" s="2" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="1094" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1093" s="2" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1094" s="2" t="s">
         <v>2199</v>
       </c>
@@ -21052,7 +21127,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="1095" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1095" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1095" s="2" t="s">
         <v>121</v>
       </c>
@@ -21060,7 +21135,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="1096" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1096" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1096" s="2" t="s">
         <v>817</v>
       </c>
@@ -21068,7 +21143,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="1097" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1097" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1097" s="2" t="s">
         <v>807</v>
       </c>
@@ -21076,7 +21151,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="1098" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1098" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1098" s="2" t="s">
         <v>813</v>
       </c>
@@ -21084,7 +21159,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="1099" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1099" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1099" s="2" t="s">
         <v>803</v>
       </c>
@@ -21092,7 +21167,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="1100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1100" s="2" t="s">
         <v>2413</v>
       </c>
@@ -21100,7 +21175,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="1101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1101" s="2" t="s">
         <v>2453</v>
       </c>
@@ -21108,7 +21183,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="1102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1102" s="2" t="s">
         <v>1589</v>
       </c>
@@ -21116,7 +21191,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="1103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1103" s="2" t="s">
         <v>1517</v>
       </c>
@@ -21124,7 +21199,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="1104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1104" s="2" t="s">
         <v>233</v>
       </c>
@@ -21179,6 +21254,9 @@
       <c r="B1110" s="2" t="s">
         <v>654</v>
       </c>
+      <c r="C1110" s="2" t="s">
+        <v>3736</v>
+      </c>
     </row>
     <row r="1111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1111" s="2" t="s">
@@ -21187,6 +21265,9 @@
       <c r="B1111" s="2" t="s">
         <v>3019</v>
       </c>
+      <c r="C1111" s="2" t="s">
+        <v>3736</v>
+      </c>
     </row>
     <row r="1112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1112" s="2" t="s">
@@ -23959,6 +24040,9 @@
       <c r="B1429" s="2" t="s">
         <v>666</v>
       </c>
+      <c r="C1429" s="2" t="s">
+        <v>3736</v>
+      </c>
     </row>
     <row r="1430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1430" s="2" t="s">
@@ -24350,6 +24434,9 @@
       <c r="B1476" s="2" t="s">
         <v>656</v>
       </c>
+      <c r="C1476" s="2" t="s">
+        <v>3736</v>
+      </c>
     </row>
     <row r="1477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1477" s="2" t="s">
@@ -24358,6 +24445,9 @@
       <c r="B1477" s="2" t="s">
         <v>694</v>
       </c>
+      <c r="C1477" s="2" t="s">
+        <v>3736</v>
+      </c>
     </row>
     <row r="1478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1478" s="2" t="s">
@@ -24366,6 +24456,9 @@
       <c r="B1478" s="2" t="s">
         <v>658</v>
       </c>
+      <c r="C1478" s="2" t="s">
+        <v>3736</v>
+      </c>
     </row>
     <row r="1479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1479" s="2" t="s">
@@ -26365,6 +26458,9 @@
       </c>
       <c r="B1713" s="2" t="s">
         <v>722</v>
+      </c>
+      <c r="C1713" s="2" t="s">
+        <v>3736</v>
       </c>
     </row>
     <row r="1714" spans="1:3" x14ac:dyDescent="0.2">

--- a/ontologies/turbo_obib_ontodog_template.xlsx
+++ b/ontologies/turbo_obib_ontodog_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12312"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4453" uniqueCount="3737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4455" uniqueCount="3737">
   <si>
     <t>Source ontology term IRI</t>
   </si>
@@ -11588,20 +11588,20 @@
   <dimension ref="A1:E1721"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B1226" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B1278" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1251" sqref="B1251"/>
+      <selection pane="bottomRight" activeCell="C1313" sqref="C1313"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="124.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="45.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="124.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -23030,6 +23030,9 @@
       <c r="B1311" s="2" t="s">
         <v>3321</v>
       </c>
+      <c r="C1311" s="2" t="s">
+        <v>3736</v>
+      </c>
     </row>
     <row r="1312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1312" s="2" t="s">
@@ -23037,6 +23040,9 @@
       </c>
       <c r="B1312" s="2" t="s">
         <v>2554</v>
+      </c>
+      <c r="C1312" s="2" t="s">
+        <v>3736</v>
       </c>
     </row>
     <row r="1313" spans="1:3" x14ac:dyDescent="0.2">
@@ -26551,12 +26557,12 @@
       <selection activeCell="B1" sqref="B1:B624"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="62.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3567</v>
       </c>
@@ -26564,7 +26570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3569</v>
       </c>
@@ -26572,7 +26578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3570</v>
       </c>
@@ -26580,7 +26586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3613</v>
       </c>
@@ -26588,7 +26594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3615</v>
       </c>
@@ -26596,7 +26602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3493</v>
       </c>
@@ -26604,7 +26610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3723</v>
       </c>
@@ -26612,7 +26618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3719</v>
       </c>
@@ -26620,7 +26626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3720</v>
       </c>
@@ -26628,7 +26634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3721</v>
       </c>
@@ -26636,7 +26642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3445</v>
       </c>
@@ -26644,7 +26650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3542</v>
       </c>
@@ -26652,7 +26658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3724</v>
       </c>
@@ -26660,7 +26666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>3725</v>
       </c>
@@ -26668,7 +26674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>3726</v>
       </c>
@@ -26676,7 +26682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3727</v>
       </c>
@@ -26684,7 +26690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3715</v>
       </c>
@@ -26692,7 +26698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>3731</v>
       </c>
@@ -26700,7 +26706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>3495</v>
       </c>
@@ -26708,7 +26714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -26716,7 +26722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -26724,7 +26730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -26732,7 +26738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -26740,7 +26746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -26748,7 +26754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -26756,7 +26762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -26764,7 +26770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -26772,7 +26778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -26780,7 +26786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -26788,7 +26794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -26796,7 +26802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -26804,7 +26810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -26812,7 +26818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -26820,7 +26826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -26828,7 +26834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -26836,7 +26842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -26844,7 +26850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>53</v>
       </c>
@@ -26852,7 +26858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -26860,7 +26866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -26868,7 +26874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -26876,7 +26882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>63</v>
       </c>
@@ -26884,7 +26890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>65</v>
       </c>
@@ -26892,7 +26898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>3572</v>
       </c>
@@ -26900,7 +26906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>67</v>
       </c>
@@ -26908,7 +26914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>69</v>
       </c>
@@ -26916,7 +26922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>3574</v>
       </c>
@@ -26924,7 +26930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>3575</v>
       </c>
@@ -26932,7 +26938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>71</v>
       </c>
@@ -26940,7 +26946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>73</v>
       </c>
@@ -26948,7 +26954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>3573</v>
       </c>
@@ -26956,7 +26962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>3577</v>
       </c>
@@ -26964,7 +26970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>3579</v>
       </c>
@@ -26972,7 +26978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>3581</v>
       </c>
@@ -26980,7 +26986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>3583</v>
       </c>
@@ -26988,7 +26994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>3578</v>
       </c>
@@ -26996,7 +27002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>3585</v>
       </c>
@@ -27004,7 +27010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>3586</v>
       </c>
@@ -27012,7 +27018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>3587</v>
       </c>
@@ -27020,7 +27026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>3582</v>
       </c>
@@ -27028,7 +27034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>3584</v>
       </c>
@@ -27036,7 +27042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>3588</v>
       </c>
@@ -27044,7 +27050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>81</v>
       </c>
@@ -27052,7 +27058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>93</v>
       </c>
@@ -27060,7 +27066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>3589</v>
       </c>
@@ -27068,7 +27074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>3590</v>
       </c>
@@ -27076,7 +27082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>3591</v>
       </c>
@@ -27084,7 +27090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>3592</v>
       </c>
@@ -27092,7 +27098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>3593</v>
       </c>
@@ -27100,7 +27106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>95</v>
       </c>
@@ -27108,7 +27114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>3580</v>
       </c>
@@ -27116,7 +27122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>3594</v>
       </c>
@@ -27124,7 +27130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>3596</v>
       </c>
@@ -27132,7 +27138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>3595</v>
       </c>
@@ -27140,7 +27146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>3576</v>
       </c>
@@ -27148,7 +27154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>3597</v>
       </c>
@@ -27156,7 +27162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>3598</v>
       </c>
@@ -27164,7 +27170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>97</v>
       </c>
@@ -27172,7 +27178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>99</v>
       </c>
@@ -27180,7 +27186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>3599</v>
       </c>
@@ -27188,7 +27194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>3600</v>
       </c>
@@ -27196,7 +27202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>3498</v>
       </c>
@@ -27204,7 +27210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>111</v>
       </c>
@@ -27212,7 +27218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>115</v>
       </c>
@@ -27220,7 +27226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>123</v>
       </c>
@@ -27228,7 +27234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>3619</v>
       </c>
@@ -27236,7 +27242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>3620</v>
       </c>
@@ -27244,7 +27250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>3622</v>
       </c>
@@ -27252,7 +27258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>131</v>
       </c>
@@ -27260,7 +27266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>3623</v>
       </c>
@@ -27268,7 +27274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>3625</v>
       </c>
@@ -27276,7 +27282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>3621</v>
       </c>
@@ -27284,7 +27290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>3628</v>
       </c>
@@ -27292,7 +27298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>3627</v>
       </c>
@@ -27300,7 +27306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>135</v>
       </c>
@@ -27308,7 +27314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>137</v>
       </c>
@@ -27316,7 +27322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>3629</v>
       </c>
@@ -27324,7 +27330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>139</v>
       </c>
@@ -27332,7 +27338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>3617</v>
       </c>
@@ -27340,7 +27346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>3630</v>
       </c>
@@ -27348,7 +27354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>3631</v>
       </c>
@@ -27356,7 +27362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>3618</v>
       </c>
@@ -27364,7 +27370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>3632</v>
       </c>
@@ -27372,7 +27378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>3626</v>
       </c>
@@ -27380,7 +27386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>3624</v>
       </c>
@@ -27388,7 +27394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>3499</v>
       </c>
@@ -27396,7 +27402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>211</v>
       </c>
@@ -27404,7 +27410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>215</v>
       </c>
@@ -27412,7 +27418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>217</v>
       </c>
@@ -27420,7 +27426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>3730</v>
       </c>
@@ -27428,7 +27434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>3633</v>
       </c>
@@ -27436,7 +27442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>3500</v>
       </c>
@@ -27444,7 +27450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>371</v>
       </c>
@@ -27452,7 +27458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>3714</v>
       </c>
@@ -27460,7 +27466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>3634</v>
       </c>
@@ -27468,7 +27474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>3637</v>
       </c>
@@ -27476,7 +27482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>3639</v>
       </c>
@@ -27484,7 +27490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>3601</v>
       </c>
@@ -27492,7 +27498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>3602</v>
       </c>
@@ -27500,7 +27506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>3638</v>
       </c>
@@ -27508,7 +27514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>3640</v>
       </c>
@@ -27516,7 +27522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>3642</v>
       </c>
@@ -27524,7 +27530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>3636</v>
       </c>
@@ -27532,7 +27538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>3644</v>
       </c>
@@ -27540,7 +27546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>3643</v>
       </c>
@@ -27548,7 +27554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>3604</v>
       </c>
@@ -27556,7 +27562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>3645</v>
       </c>
@@ -27564,7 +27570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>3603</v>
       </c>
@@ -27572,7 +27578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>3568</v>
       </c>
@@ -27580,7 +27586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>3646</v>
       </c>
@@ -27588,7 +27594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>3614</v>
       </c>
@@ -27596,7 +27602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>3635</v>
       </c>
@@ -27604,7 +27610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>3647</v>
       </c>
@@ -27612,7 +27618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>3612</v>
       </c>
@@ -27620,7 +27626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>3501</v>
       </c>
@@ -27628,7 +27634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>399</v>
       </c>
@@ -27636,7 +27642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>3648</v>
       </c>
@@ -27644,7 +27650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>3451</v>
       </c>
@@ -27652,7 +27658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>3467</v>
       </c>
@@ -27660,7 +27666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>407</v>
       </c>
@@ -27668,7 +27674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>409</v>
       </c>
@@ -27676,7 +27682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>411</v>
       </c>
@@ -27684,7 +27690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>413</v>
       </c>
@@ -27692,7 +27698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>415</v>
       </c>
@@ -27700,7 +27706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>417</v>
       </c>
@@ -27708,7 +27714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>419</v>
       </c>
@@ -27716,7 +27722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>423</v>
       </c>
@@ -27724,7 +27730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>425</v>
       </c>
@@ -27732,7 +27738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>427</v>
       </c>
@@ -27740,7 +27746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>429</v>
       </c>
@@ -27748,7 +27754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>431</v>
       </c>
@@ -27756,7 +27762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>433</v>
       </c>
@@ -27764,7 +27770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>435</v>
       </c>
@@ -27772,7 +27778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>437</v>
       </c>
@@ -27780,7 +27786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>439</v>
       </c>
@@ -27788,7 +27794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>3471</v>
       </c>
@@ -27796,7 +27802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>441</v>
       </c>
@@ -27804,7 +27810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>443</v>
       </c>
@@ -27812,7 +27818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>445</v>
       </c>
@@ -27820,7 +27826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>447</v>
       </c>
@@ -27828,7 +27834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>449</v>
       </c>
@@ -27836,7 +27842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>451</v>
       </c>
@@ -27844,7 +27850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>453</v>
       </c>
@@ -27852,7 +27858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>455</v>
       </c>
@@ -27860,7 +27866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>457</v>
       </c>
@@ -27868,7 +27874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>459</v>
       </c>
@@ -27876,7 +27882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>3459</v>
       </c>
@@ -27884,7 +27890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>3466</v>
       </c>
@@ -27892,7 +27898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>3450</v>
       </c>
@@ -27900,7 +27906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>3460</v>
       </c>
@@ -27908,7 +27914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>3463</v>
       </c>
@@ -27916,7 +27922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>3449</v>
       </c>
@@ -27924,7 +27930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>461</v>
       </c>
@@ -27932,7 +27938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>465</v>
       </c>
@@ -27940,7 +27946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>469</v>
       </c>
@@ -27948,7 +27954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>471</v>
       </c>
@@ -27956,7 +27962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>473</v>
       </c>
@@ -27964,7 +27970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>475</v>
       </c>
@@ -27972,7 +27978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>477</v>
       </c>
@@ -27980,7 +27986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>479</v>
       </c>
@@ -27988,7 +27994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>3470</v>
       </c>
@@ -27996,7 +28002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>3468</v>
       </c>
@@ -28004,7 +28010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>3469</v>
       </c>
@@ -28012,7 +28018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>3472</v>
       </c>
@@ -28020,7 +28026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>481</v>
       </c>
@@ -28028,7 +28034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>483</v>
       </c>
@@ -28036,7 +28042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>485</v>
       </c>
@@ -28044,7 +28050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>487</v>
       </c>
@@ -28052,7 +28058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>489</v>
       </c>
@@ -28060,7 +28066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>493</v>
       </c>
@@ -28068,7 +28074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>495</v>
       </c>
@@ -28076,7 +28082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>499</v>
       </c>
@@ -28084,7 +28090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>501</v>
       </c>
@@ -28092,7 +28098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>3473</v>
       </c>
@@ -28100,7 +28106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>503</v>
       </c>
@@ -28108,7 +28114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>505</v>
       </c>
@@ -28116,7 +28122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>507</v>
       </c>
@@ -28124,7 +28130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>509</v>
       </c>
@@ -28132,7 +28138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>511</v>
       </c>
@@ -28140,7 +28146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>3474</v>
       </c>
@@ -28148,7 +28154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>3475</v>
       </c>
@@ -28156,7 +28162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>3464</v>
       </c>
@@ -28164,7 +28170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>3465</v>
       </c>
@@ -28172,7 +28178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>523</v>
       </c>
@@ -28180,7 +28186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>525</v>
       </c>
@@ -28188,7 +28194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>527</v>
       </c>
@@ -28196,7 +28202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>529</v>
       </c>
@@ -28204,7 +28210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>531</v>
       </c>
@@ -28212,7 +28218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>533</v>
       </c>
@@ -28220,7 +28226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>535</v>
       </c>
@@ -28228,7 +28234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>539</v>
       </c>
@@ -28236,7 +28242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>541</v>
       </c>
@@ -28244,7 +28250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>543</v>
       </c>
@@ -28252,7 +28258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>547</v>
       </c>
@@ -28260,7 +28266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>549</v>
       </c>
@@ -28268,7 +28274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>551</v>
       </c>
@@ -28276,7 +28282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>553</v>
       </c>
@@ -28284,7 +28290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>555</v>
       </c>
@@ -28292,7 +28298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>557</v>
       </c>
@@ -28300,7 +28306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>559</v>
       </c>
@@ -28308,7 +28314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>561</v>
       </c>
@@ -28316,7 +28322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>563</v>
       </c>
@@ -28324,7 +28330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>565</v>
       </c>
@@ -28332,7 +28338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>567</v>
       </c>
@@ -28340,7 +28346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>3504</v>
       </c>
@@ -28348,7 +28354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>569</v>
       </c>
@@ -28356,7 +28362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>571</v>
       </c>
@@ -28364,7 +28370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>3650</v>
       </c>
@@ -28372,7 +28378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>3477</v>
       </c>
@@ -28380,7 +28386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>3560</v>
       </c>
@@ -28388,7 +28394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>3497</v>
       </c>
@@ -28396,7 +28402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>601</v>
       </c>
@@ -28404,7 +28410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>619</v>
       </c>
@@ -28412,7 +28418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>621</v>
       </c>
@@ -28420,7 +28426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>623</v>
       </c>
@@ -28428,7 +28434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>625</v>
       </c>
@@ -28436,7 +28442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>627</v>
       </c>
@@ -28444,7 +28450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>629</v>
       </c>
@@ -28452,7 +28458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>631</v>
       </c>
@@ -28460,7 +28466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>633</v>
       </c>
@@ -28468,7 +28474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>3652</v>
       </c>
@@ -28476,7 +28482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>635</v>
       </c>
@@ -28484,7 +28490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>641</v>
       </c>
@@ -28492,7 +28498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>643</v>
       </c>
@@ -28500,7 +28506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>645</v>
       </c>
@@ -28508,7 +28514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>3728</v>
       </c>
@@ -28516,7 +28522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>3729</v>
       </c>
@@ -28524,7 +28530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>3733</v>
       </c>
@@ -28532,7 +28538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>3654</v>
       </c>
@@ -28540,7 +28546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>3559</v>
       </c>
@@ -28548,7 +28554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>3514</v>
       </c>
@@ -28556,7 +28562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>3512</v>
       </c>
@@ -28564,7 +28570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>3511</v>
       </c>
@@ -28572,7 +28578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>3513</v>
       </c>
@@ -28580,7 +28586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>3516</v>
       </c>
@@ -28588,7 +28594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>3558</v>
       </c>
@@ -28596,7 +28602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>3518</v>
       </c>
@@ -28604,7 +28610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>3519</v>
       </c>
@@ -28612,7 +28618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>3461</v>
       </c>
@@ -28620,7 +28626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>1945</v>
       </c>
@@ -28628,7 +28634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>3656</v>
       </c>
@@ -28636,7 +28642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>1953</v>
       </c>
@@ -28644,7 +28650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>1955</v>
       </c>
@@ -28652,7 +28658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>1957</v>
       </c>
@@ -28660,7 +28666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>1959</v>
       </c>
@@ -28668,7 +28674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>1961</v>
       </c>
@@ -28676,7 +28682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>1963</v>
       </c>
@@ -28684,7 +28690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>1965</v>
       </c>
@@ -28692,7 +28698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>1967</v>
       </c>
@@ -28700,7 +28706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>1969</v>
       </c>
@@ -28708,7 +28714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>1977</v>
       </c>
@@ -28716,7 +28722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>3657</v>
       </c>
@@ -28724,7 +28730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>1979</v>
       </c>
@@ -28732,7 +28738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>1981</v>
       </c>
@@ -28740,7 +28746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>1985</v>
       </c>
@@ -28748,7 +28754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>3658</v>
       </c>
@@ -28756,7 +28762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>1987</v>
       </c>
@@ -28764,7 +28770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>1989</v>
       </c>
@@ -28772,7 +28778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>1991</v>
       </c>
@@ -28780,7 +28786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>1993</v>
       </c>
@@ -28788,7 +28794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>1995</v>
       </c>
@@ -28796,7 +28802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>1999</v>
       </c>
@@ -28804,7 +28810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>2001</v>
       </c>
@@ -28812,7 +28818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>2003</v>
       </c>
@@ -28820,7 +28826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>2005</v>
       </c>
@@ -28828,7 +28834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>2007</v>
       </c>
@@ -28836,7 +28842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>2011</v>
       </c>
@@ -28844,7 +28850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>2013</v>
       </c>
@@ -28852,7 +28858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>3660</v>
       </c>
@@ -28860,7 +28866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>2019</v>
       </c>
@@ -28868,7 +28874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>2023</v>
       </c>
@@ -28876,7 +28882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>2031</v>
       </c>
@@ -28884,7 +28890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>2033</v>
       </c>
@@ -28892,7 +28898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>3662</v>
       </c>
@@ -28900,7 +28906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>3663</v>
       </c>
@@ -28908,7 +28914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>2039</v>
       </c>
@@ -28916,7 +28922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>3665</v>
       </c>
@@ -28924,7 +28930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>2041</v>
       </c>
@@ -28932,7 +28938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>2043</v>
       </c>
@@ -28940,7 +28946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>3666</v>
       </c>
@@ -28948,7 +28954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>2047</v>
       </c>
@@ -28956,7 +28962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>2049</v>
       </c>
@@ -28964,7 +28970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>2055</v>
       </c>
@@ -28972,7 +28978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>3655</v>
       </c>
@@ -28980,7 +28986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>2059</v>
       </c>
@@ -28988,7 +28994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>2061</v>
       </c>
@@ -28996,7 +29002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>2067</v>
       </c>
@@ -29004,7 +29010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>3670</v>
       </c>
@@ -29012,7 +29018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>2069</v>
       </c>
@@ -29020,7 +29026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>2071</v>
       </c>
@@ -29028,7 +29034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>2073</v>
       </c>
@@ -29036,7 +29042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>2077</v>
       </c>
@@ -29044,7 +29050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>2079</v>
       </c>
@@ -29052,7 +29058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>2083</v>
       </c>
@@ -29060,7 +29066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>2085</v>
       </c>
@@ -29068,7 +29074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>2087</v>
       </c>
@@ -29076,7 +29082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>2089</v>
       </c>
@@ -29084,7 +29090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>3671</v>
       </c>
@@ -29092,7 +29098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>2091</v>
       </c>
@@ -29100,7 +29106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>2093</v>
       </c>
@@ -29108,7 +29114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>2099</v>
       </c>
@@ -29116,7 +29122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>2101</v>
       </c>
@@ -29124,7 +29130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>2103</v>
       </c>
@@ -29132,7 +29138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>2113</v>
       </c>
@@ -29140,7 +29146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>3672</v>
       </c>
@@ -29148,7 +29154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>2121</v>
       </c>
@@ -29156,7 +29162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>2129</v>
       </c>
@@ -29164,7 +29170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>3673</v>
       </c>
@@ -29172,7 +29178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>2137</v>
       </c>
@@ -29180,7 +29186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>2141</v>
       </c>
@@ -29188,7 +29194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>2145</v>
       </c>
@@ -29196,7 +29202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>2153</v>
       </c>
@@ -29204,7 +29210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>2165</v>
       </c>
@@ -29212,7 +29218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>2169</v>
       </c>
@@ -29220,7 +29226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>3674</v>
       </c>
@@ -29228,7 +29234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>3664</v>
       </c>
@@ -29236,7 +29242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>3676</v>
       </c>
@@ -29244,7 +29250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>3675</v>
       </c>
@@ -29252,7 +29258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>2173</v>
       </c>
@@ -29260,7 +29266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>2177</v>
       </c>
@@ -29268,7 +29274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>3667</v>
       </c>
@@ -29276,7 +29282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>2189</v>
       </c>
@@ -29284,7 +29290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>2193</v>
       </c>
@@ -29292,7 +29298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>3677</v>
       </c>
@@ -29300,7 +29306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>2203</v>
       </c>
@@ -29308,7 +29314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>2205</v>
       </c>
@@ -29316,7 +29322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>2207</v>
       </c>
@@ -29324,7 +29330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>2211</v>
       </c>
@@ -29332,7 +29338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>2213</v>
       </c>
@@ -29340,7 +29346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>2215</v>
       </c>
@@ -29348,7 +29354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>2219</v>
       </c>
@@ -29356,7 +29362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>2221</v>
       </c>
@@ -29364,7 +29370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>3678</v>
       </c>
@@ -29372,7 +29378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>2263</v>
       </c>
@@ -29380,7 +29386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>2271</v>
       </c>
@@ -29388,7 +29394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>2275</v>
       </c>
@@ -29396,7 +29402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>2323</v>
       </c>
@@ -29404,7 +29410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>3659</v>
       </c>
@@ -29412,7 +29418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>2649</v>
       </c>
@@ -29420,7 +29426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>2651</v>
       </c>
@@ -29428,7 +29434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>2653</v>
       </c>
@@ -29436,7 +29442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>3661</v>
       </c>
@@ -29444,7 +29450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>2657</v>
       </c>
@@ -29452,7 +29458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>2659</v>
       </c>
@@ -29460,7 +29466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>2665</v>
       </c>
@@ -29468,7 +29474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>2667</v>
       </c>
@@ -29476,7 +29482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>2673</v>
       </c>
@@ -29484,7 +29490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>2675</v>
       </c>
@@ -29492,7 +29498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>2677</v>
       </c>
@@ -29500,7 +29506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>2679</v>
       </c>
@@ -29508,7 +29514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>3669</v>
       </c>
@@ -29516,7 +29522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>2683</v>
       </c>
@@ -29524,7 +29530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>2685</v>
       </c>
@@ -29532,7 +29538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>2695</v>
       </c>
@@ -29540,7 +29546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>2697</v>
       </c>
@@ -29548,7 +29554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>3680</v>
       </c>
@@ -29556,7 +29562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>2703</v>
       </c>
@@ -29564,7 +29570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>2705</v>
       </c>
@@ -29572,7 +29578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>3668</v>
       </c>
@@ -29580,7 +29586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>2717</v>
       </c>
@@ -29588,7 +29594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>2721</v>
       </c>
@@ -29596,7 +29602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>2725</v>
       </c>
@@ -29604,7 +29610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>741</v>
       </c>
@@ -29612,7 +29618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>751</v>
       </c>
@@ -29620,7 +29626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>753</v>
       </c>
@@ -29628,7 +29634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>769</v>
       </c>
@@ -29636,7 +29642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>775</v>
       </c>
@@ -29644,7 +29650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>873</v>
       </c>
@@ -29652,7 +29658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>1177</v>
       </c>
@@ -29660,7 +29666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>3444</v>
       </c>
@@ -29668,7 +29674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>3713</v>
       </c>
@@ -29676,7 +29682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>3679</v>
       </c>
@@ -29684,7 +29690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>3563</v>
       </c>
@@ -29692,7 +29698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>3681</v>
       </c>
@@ -29700,7 +29706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>3538</v>
       </c>
@@ -29708,7 +29714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>3539</v>
       </c>
@@ -29716,7 +29722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>3540</v>
       </c>
@@ -29724,7 +29730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>3533</v>
       </c>
@@ -29732,7 +29738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>3534</v>
       </c>
@@ -29740,7 +29746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>3536</v>
       </c>
@@ -29748,7 +29754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>3682</v>
       </c>
@@ -29756,7 +29762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>3605</v>
       </c>
@@ -29764,7 +29770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>3551</v>
       </c>
@@ -29772,7 +29778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>3606</v>
       </c>
@@ -29780,7 +29786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>3550</v>
       </c>
@@ -29788,7 +29794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>3554</v>
       </c>
@@ -29796,7 +29802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>3555</v>
       </c>
@@ -29804,7 +29810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>3562</v>
       </c>
@@ -29812,7 +29818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>3566</v>
       </c>
@@ -29820,7 +29826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>3651</v>
       </c>
@@ -29828,7 +29834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>3653</v>
       </c>
@@ -29836,7 +29842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>3683</v>
       </c>
@@ -29844,7 +29850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>3684</v>
       </c>
@@ -29852,7 +29858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>3685</v>
       </c>
@@ -29860,7 +29866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>3686</v>
       </c>
@@ -29868,7 +29874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>3687</v>
       </c>
@@ -29876,7 +29882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>3506</v>
       </c>
@@ -29884,7 +29890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>2729</v>
       </c>
@@ -29892,7 +29898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>2733</v>
       </c>
@@ -29900,7 +29906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>2735</v>
       </c>
@@ -29908,7 +29914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>2739</v>
       </c>
@@ -29916,7 +29922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>2743</v>
       </c>
@@ -29924,7 +29930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>2749</v>
       </c>
@@ -29932,7 +29938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>2757</v>
       </c>
@@ -29940,7 +29946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>2759</v>
       </c>
@@ -29948,7 +29954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>2761</v>
       </c>
@@ -29956,7 +29962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>2763</v>
       </c>
@@ -29964,7 +29970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>2765</v>
       </c>
@@ -29972,7 +29978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>2767</v>
       </c>
@@ -29980,7 +29986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>2813</v>
       </c>
@@ -29988,7 +29994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>2837</v>
       </c>
@@ -29996,7 +30002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>2859</v>
       </c>
@@ -30004,7 +30010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>2894</v>
       </c>
@@ -30012,7 +30018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>2928</v>
       </c>
@@ -30020,7 +30026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>2966</v>
       </c>
@@ -30028,7 +30034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>2980</v>
       </c>
@@ -30036,7 +30042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>3476</v>
       </c>
@@ -30044,7 +30050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>2988</v>
       </c>
@@ -30052,7 +30058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>2990</v>
       </c>
@@ -30060,7 +30066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>2994</v>
       </c>
@@ -30068,7 +30074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>2996</v>
       </c>
@@ -30076,7 +30082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>2998</v>
       </c>
@@ -30084,7 +30090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>3000</v>
       </c>
@@ -30092,7 +30098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>3002</v>
       </c>
@@ -30100,7 +30106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>3004</v>
       </c>
@@ -30108,7 +30114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>3012</v>
       </c>
@@ -30116,7 +30122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>3014</v>
       </c>
@@ -30124,7 +30130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>3020</v>
       </c>
@@ -30132,7 +30138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>3022</v>
       </c>
@@ -30140,7 +30146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>3024</v>
       </c>
@@ -30148,7 +30154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>3026</v>
       </c>
@@ -30156,7 +30162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>3028</v>
       </c>
@@ -30164,7 +30170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>3030</v>
       </c>
@@ -30172,7 +30178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>3503</v>
       </c>
@@ -30180,7 +30186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>3044</v>
       </c>
@@ -30188,7 +30194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>3046</v>
       </c>
@@ -30196,7 +30202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>3048</v>
       </c>
@@ -30204,7 +30210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>3050</v>
       </c>
@@ -30212,7 +30218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>3052</v>
       </c>
@@ -30220,7 +30226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>3054</v>
       </c>
@@ -30228,7 +30234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>3056</v>
       </c>
@@ -30236,7 +30242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>3058</v>
       </c>
@@ -30244,7 +30250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>3688</v>
       </c>
@@ -30252,7 +30258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>3689</v>
       </c>
@@ -30260,7 +30266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>3066</v>
       </c>
@@ -30268,7 +30274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>3068</v>
       </c>
@@ -30276,7 +30282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>3070</v>
       </c>
@@ -30284,7 +30290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>3072</v>
       </c>
@@ -30292,7 +30298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>3082</v>
       </c>
@@ -30300,7 +30306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>3734</v>
       </c>
@@ -30308,7 +30314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>3690</v>
       </c>
@@ -30316,7 +30322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>3691</v>
       </c>
@@ -30324,7 +30330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>3611</v>
       </c>
@@ -30332,7 +30338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>3712</v>
       </c>
@@ -30340,7 +30346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>3087</v>
       </c>
@@ -30348,7 +30354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>3693</v>
       </c>
@@ -30356,7 +30362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>3694</v>
       </c>
@@ -30364,7 +30370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>3692</v>
       </c>
@@ -30372,7 +30378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>3696</v>
       </c>
@@ -30380,7 +30386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>3699</v>
       </c>
@@ -30388,7 +30394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>3700</v>
       </c>
@@ -30396,7 +30402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>3701</v>
       </c>
@@ -30404,7 +30410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>3697</v>
       </c>
@@ -30412,7 +30418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>3698</v>
       </c>
@@ -30420,7 +30426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>3695</v>
       </c>
@@ -30428,7 +30434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>3702</v>
       </c>
@@ -30436,7 +30442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>3496</v>
       </c>
@@ -30444,7 +30450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>3095</v>
       </c>
@@ -30452,7 +30458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>3097</v>
       </c>
@@ -30460,7 +30466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>3099</v>
       </c>
@@ -30468,7 +30474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>3101</v>
       </c>
@@ -30476,7 +30482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>3103</v>
       </c>
@@ -30484,7 +30490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>3105</v>
       </c>
@@ -30492,7 +30498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>3107</v>
       </c>
@@ -30500,7 +30506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>3109</v>
       </c>
@@ -30508,7 +30514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>3111</v>
       </c>
@@ -30516,7 +30522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>3113</v>
       </c>
@@ -30524,7 +30530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>3115</v>
       </c>
@@ -30532,7 +30538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>3117</v>
       </c>
@@ -30540,7 +30546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>3123</v>
       </c>
@@ -30548,7 +30554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>3125</v>
       </c>
@@ -30556,7 +30562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>3131</v>
       </c>
@@ -30564,7 +30570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>3457</v>
       </c>
@@ -30572,7 +30578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>3607</v>
       </c>
@@ -30580,7 +30586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>3608</v>
       </c>
@@ -30588,7 +30594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>3571</v>
       </c>
@@ -30596,7 +30602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>3609</v>
       </c>
@@ -30604,7 +30610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>3610</v>
       </c>
@@ -30612,7 +30618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>3143</v>
       </c>
@@ -30620,7 +30626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>3145</v>
       </c>
@@ -30628,7 +30634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>3147</v>
       </c>
@@ -30636,7 +30642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>3149</v>
       </c>
@@ -30644,7 +30650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>3151</v>
       </c>
@@ -30652,7 +30658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>3152</v>
       </c>
@@ -30660,7 +30666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>3154</v>
       </c>
@@ -30668,7 +30674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>3156</v>
       </c>
@@ -30676,7 +30682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>3541</v>
       </c>
@@ -30684,7 +30690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>3732</v>
       </c>
@@ -30692,7 +30698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>3158</v>
       </c>
@@ -30700,7 +30706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>3703</v>
       </c>
@@ -30708,7 +30714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>3616</v>
       </c>
@@ -30716,7 +30722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>3704</v>
       </c>
@@ -30724,7 +30730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>3641</v>
       </c>
@@ -30732,7 +30738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>3649</v>
       </c>
@@ -30740,7 +30746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>3705</v>
       </c>
@@ -30748,7 +30754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>3706</v>
       </c>
@@ -30756,7 +30762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>3505</v>
       </c>
@@ -30764,7 +30770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>3707</v>
       </c>
@@ -30772,7 +30778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>3170</v>
       </c>
@@ -30780,7 +30786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>3176</v>
       </c>
@@ -30788,7 +30794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>3178</v>
       </c>
@@ -30796,7 +30802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>3182</v>
       </c>
@@ -30804,7 +30810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>3184</v>
       </c>
@@ -30812,7 +30818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>3206</v>
       </c>
@@ -30820,7 +30826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>3708</v>
       </c>
@@ -30828,7 +30834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>3530</v>
       </c>
@@ -30836,7 +30842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>3502</v>
       </c>
@@ -30844,7 +30850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>3372</v>
       </c>
@@ -30852,7 +30858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>3374</v>
       </c>
@@ -30860,7 +30866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>3376</v>
       </c>
@@ -30868,7 +30874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>3710</v>
       </c>
@@ -30876,7 +30882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>3711</v>
       </c>
@@ -30884,7 +30890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>3380</v>
       </c>
@@ -30892,7 +30898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>3382</v>
       </c>
@@ -30900,7 +30906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>3494</v>
       </c>
@@ -30908,7 +30914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>3386</v>
       </c>
@@ -30916,7 +30922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>3388</v>
       </c>
@@ -30924,7 +30930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>3390</v>
       </c>
@@ -30932,7 +30938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>3392</v>
       </c>
@@ -30940,7 +30946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>3394</v>
       </c>
@@ -30948,7 +30954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>3446</v>
       </c>
@@ -30956,7 +30962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>3396</v>
       </c>
@@ -30964,7 +30970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>3398</v>
       </c>
@@ -30972,7 +30978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>3400</v>
       </c>
@@ -30980,7 +30986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>3509</v>
       </c>
@@ -30988,7 +30994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>3528</v>
       </c>
@@ -30996,7 +31002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>3529</v>
       </c>
@@ -31004,7 +31010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>3531</v>
       </c>
@@ -31012,7 +31018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>3507</v>
       </c>
@@ -31020,7 +31026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>3404</v>
       </c>
@@ -31028,7 +31034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>3709</v>
       </c>
@@ -31036,7 +31042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>3432</v>
       </c>
@@ -31044,7 +31050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>3517</v>
       </c>
@@ -31052,7 +31058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>3552</v>
       </c>
@@ -31060,7 +31066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>3532</v>
       </c>
@@ -31068,7 +31074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>3561</v>
       </c>
@@ -31076,7 +31082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>3557</v>
       </c>
@@ -31084,7 +31090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>3510</v>
       </c>
@@ -31092,7 +31098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>3553</v>
       </c>
@@ -31100,7 +31106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>3547</v>
       </c>
@@ -31108,7 +31114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>3565</v>
       </c>
@@ -31116,7 +31122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>3522</v>
       </c>
@@ -31124,7 +31130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>3537</v>
       </c>
@@ -31132,7 +31138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>3556</v>
       </c>
@@ -31140,7 +31146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>3545</v>
       </c>
@@ -31148,7 +31154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>3521</v>
       </c>
@@ -31156,7 +31162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>3515</v>
       </c>
@@ -31164,7 +31170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>3544</v>
       </c>
@@ -31172,7 +31178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>3548</v>
       </c>
@@ -31180,7 +31186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>3526</v>
       </c>
@@ -31188,7 +31194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>3564</v>
       </c>
@@ -31196,7 +31202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>3535</v>
       </c>
@@ -31204,7 +31210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>3523</v>
       </c>
@@ -31212,7 +31218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>3525</v>
       </c>
@@ -31220,7 +31226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>3549</v>
       </c>
@@ -31228,7 +31234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>3524</v>
       </c>
@@ -31236,7 +31242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>3527</v>
       </c>
@@ -31244,7 +31250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>3436</v>
       </c>
@@ -31252,7 +31258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>3520</v>
       </c>
@@ -31260,7 +31266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>3438</v>
       </c>
@@ -31268,7 +31274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>3508</v>
       </c>
@@ -31276,7 +31282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>3443</v>
       </c>
@@ -31284,7 +31290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>3447</v>
       </c>
@@ -31292,7 +31298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>3481</v>
       </c>
@@ -31300,7 +31306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>3448</v>
       </c>
@@ -31308,7 +31314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>3440</v>
       </c>
@@ -31316,7 +31322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>3454</v>
       </c>
@@ -31324,7 +31330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>3718</v>
       </c>
@@ -31332,7 +31338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>3456</v>
       </c>
@@ -31340,7 +31346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>3491</v>
       </c>
@@ -31348,7 +31354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>3717</v>
       </c>
@@ -31356,7 +31362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>3478</v>
       </c>
@@ -31364,7 +31370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>3486</v>
       </c>
@@ -31372,7 +31378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>3484</v>
       </c>
@@ -31380,7 +31386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>3488</v>
       </c>
@@ -31388,7 +31394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>3453</v>
       </c>
@@ -31396,7 +31402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>3485</v>
       </c>
@@ -31404,7 +31410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>3487</v>
       </c>
@@ -31412,7 +31418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>3480</v>
       </c>
@@ -31420,7 +31426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>3735</v>
       </c>
@@ -31428,7 +31434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>3483</v>
       </c>
@@ -31436,7 +31442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>3479</v>
       </c>
@@ -31444,7 +31450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>3492</v>
       </c>
@@ -31452,7 +31458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>3489</v>
       </c>
@@ -31460,7 +31466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>3716</v>
       </c>
@@ -31468,7 +31474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>3462</v>
       </c>
@@ -31476,7 +31482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>3490</v>
       </c>
@@ -31484,7 +31490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>3458</v>
       </c>
@@ -31492,7 +31498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>3482</v>
       </c>
@@ -31500,7 +31506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>3455</v>
       </c>
@@ -31508,7 +31514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>3546</v>
       </c>
@@ -31516,7 +31522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>3543</v>
       </c>
@@ -31524,7 +31530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>3452</v>
       </c>
@@ -31532,7 +31538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>3722</v>
       </c>
@@ -31540,7 +31546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>3442</v>
       </c>

--- a/ontologies/turbo_obib_ontodog_template.xlsx
+++ b/ontologies/turbo_obib_ontodog_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12312"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4455" uniqueCount="3737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4460" uniqueCount="3737">
   <si>
     <t>Source ontology term IRI</t>
   </si>
@@ -11588,20 +11588,20 @@
   <dimension ref="A1:E1721"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B1278" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1313" sqref="C1313"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="124.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="45.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="124.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -13067,6 +13067,9 @@
       <c r="B165" s="2" t="s">
         <v>2646</v>
       </c>
+      <c r="C165" s="2" t="s">
+        <v>3736</v>
+      </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
@@ -13091,6 +13094,9 @@
       <c r="B168" s="2" t="s">
         <v>2648</v>
       </c>
+      <c r="C168" s="2" t="s">
+        <v>3736</v>
+      </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
@@ -13700,6 +13706,9 @@
       <c r="B240" s="2" t="s">
         <v>2522</v>
       </c>
+      <c r="C240" s="2" t="s">
+        <v>3736</v>
+      </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
@@ -16837,6 +16846,9 @@
       <c r="B604" s="2" t="s">
         <v>2524</v>
       </c>
+      <c r="C604" s="2" t="s">
+        <v>3736</v>
+      </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A605" s="2" t="s">
@@ -26189,6 +26201,9 @@
       </c>
       <c r="B1682" s="2" t="s">
         <v>2064</v>
+      </c>
+      <c r="C1682" s="2" t="s">
+        <v>3736</v>
       </c>
     </row>
     <row r="1683" spans="1:3" x14ac:dyDescent="0.2">
@@ -26557,12 +26572,12 @@
       <selection activeCell="B1" sqref="B1:B624"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3567</v>
       </c>
@@ -26570,7 +26585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3569</v>
       </c>
@@ -26578,7 +26593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3570</v>
       </c>
@@ -26586,7 +26601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3613</v>
       </c>
@@ -26594,7 +26609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3615</v>
       </c>
@@ -26602,7 +26617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3493</v>
       </c>
@@ -26610,7 +26625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3723</v>
       </c>
@@ -26618,7 +26633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3719</v>
       </c>
@@ -26626,7 +26641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3720</v>
       </c>
@@ -26634,7 +26649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3721</v>
       </c>
@@ -26642,7 +26657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3445</v>
       </c>
@@ -26650,7 +26665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3542</v>
       </c>
@@ -26658,7 +26673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3724</v>
       </c>
@@ -26666,7 +26681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3725</v>
       </c>
@@ -26674,7 +26689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3726</v>
       </c>
@@ -26682,7 +26697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3727</v>
       </c>
@@ -26690,7 +26705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3715</v>
       </c>
@@ -26698,7 +26713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3731</v>
       </c>
@@ -26706,7 +26721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3495</v>
       </c>
@@ -26714,7 +26729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -26722,7 +26737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -26730,7 +26745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -26738,7 +26753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -26746,7 +26761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -26754,7 +26769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -26762,7 +26777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -26770,7 +26785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -26778,7 +26793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -26786,7 +26801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -26794,7 +26809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -26802,7 +26817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -26810,7 +26825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -26818,7 +26833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -26826,7 +26841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -26834,7 +26849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -26842,7 +26857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -26850,7 +26865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>53</v>
       </c>
@@ -26858,7 +26873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -26866,7 +26881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -26874,7 +26889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -26882,7 +26897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>63</v>
       </c>
@@ -26890,7 +26905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>65</v>
       </c>
@@ -26898,7 +26913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>3572</v>
       </c>
@@ -26906,7 +26921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>67</v>
       </c>
@@ -26914,7 +26929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>69</v>
       </c>
@@ -26922,7 +26937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>3574</v>
       </c>
@@ -26930,7 +26945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>3575</v>
       </c>
@@ -26938,7 +26953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>71</v>
       </c>
@@ -26946,7 +26961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>73</v>
       </c>
@@ -26954,7 +26969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>3573</v>
       </c>
@@ -26962,7 +26977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>3577</v>
       </c>
@@ -26970,7 +26985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>3579</v>
       </c>
@@ -26978,7 +26993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>3581</v>
       </c>
@@ -26986,7 +27001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>3583</v>
       </c>
@@ -26994,7 +27009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>3578</v>
       </c>
@@ -27002,7 +27017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>3585</v>
       </c>
@@ -27010,7 +27025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>3586</v>
       </c>
@@ -27018,7 +27033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>3587</v>
       </c>
@@ -27026,7 +27041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>3582</v>
       </c>
@@ -27034,7 +27049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>3584</v>
       </c>
@@ -27042,7 +27057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>3588</v>
       </c>
@@ -27050,7 +27065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>81</v>
       </c>
@@ -27058,7 +27073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>93</v>
       </c>
@@ -27066,7 +27081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>3589</v>
       </c>
@@ -27074,7 +27089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>3590</v>
       </c>
@@ -27082,7 +27097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>3591</v>
       </c>
@@ -27090,7 +27105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>3592</v>
       </c>
@@ -27098,7 +27113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>3593</v>
       </c>
@@ -27106,7 +27121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>95</v>
       </c>
@@ -27114,7 +27129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>3580</v>
       </c>
@@ -27122,7 +27137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>3594</v>
       </c>
@@ -27130,7 +27145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>3596</v>
       </c>
@@ -27138,7 +27153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>3595</v>
       </c>
@@ -27146,7 +27161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>3576</v>
       </c>
@@ -27154,7 +27169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>3597</v>
       </c>
@@ -27162,7 +27177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>3598</v>
       </c>
@@ -27170,7 +27185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>97</v>
       </c>
@@ -27178,7 +27193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>99</v>
       </c>
@@ -27186,7 +27201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>3599</v>
       </c>
@@ -27194,7 +27209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>3600</v>
       </c>
@@ -27202,7 +27217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>3498</v>
       </c>
@@ -27210,7 +27225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>111</v>
       </c>
@@ -27218,7 +27233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>115</v>
       </c>
@@ -27226,7 +27241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>123</v>
       </c>
@@ -27234,7 +27249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>3619</v>
       </c>
@@ -27242,7 +27257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>3620</v>
       </c>
@@ -27250,7 +27265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>3622</v>
       </c>
@@ -27258,7 +27273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>131</v>
       </c>
@@ -27266,7 +27281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>3623</v>
       </c>
@@ -27274,7 +27289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>3625</v>
       </c>
@@ -27282,7 +27297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>3621</v>
       </c>
@@ -27290,7 +27305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>3628</v>
       </c>
@@ -27298,7 +27313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>3627</v>
       </c>
@@ -27306,7 +27321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>135</v>
       </c>
@@ -27314,7 +27329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>137</v>
       </c>
@@ -27322,7 +27337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>3629</v>
       </c>
@@ -27330,7 +27345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>139</v>
       </c>
@@ -27338,7 +27353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>3617</v>
       </c>
@@ -27346,7 +27361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>3630</v>
       </c>
@@ -27354,7 +27369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>3631</v>
       </c>
@@ -27362,7 +27377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>3618</v>
       </c>
@@ -27370,7 +27385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>3632</v>
       </c>
@@ -27378,7 +27393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>3626</v>
       </c>
@@ -27386,7 +27401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>3624</v>
       </c>
@@ -27394,7 +27409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>3499</v>
       </c>
@@ -27402,7 +27417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>211</v>
       </c>
@@ -27410,7 +27425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>215</v>
       </c>
@@ -27418,7 +27433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>217</v>
       </c>
@@ -27426,7 +27441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>3730</v>
       </c>
@@ -27434,7 +27449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>3633</v>
       </c>
@@ -27442,7 +27457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>3500</v>
       </c>
@@ -27450,7 +27465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>371</v>
       </c>
@@ -27458,7 +27473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>3714</v>
       </c>
@@ -27466,7 +27481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>3634</v>
       </c>
@@ -27474,7 +27489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>3637</v>
       </c>
@@ -27482,7 +27497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>3639</v>
       </c>
@@ -27490,7 +27505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>3601</v>
       </c>
@@ -27498,7 +27513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>3602</v>
       </c>
@@ -27506,7 +27521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>3638</v>
       </c>
@@ -27514,7 +27529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>3640</v>
       </c>
@@ -27522,7 +27537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>3642</v>
       </c>
@@ -27530,7 +27545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>3636</v>
       </c>
@@ -27538,7 +27553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>3644</v>
       </c>
@@ -27546,7 +27561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>3643</v>
       </c>
@@ -27554,7 +27569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>3604</v>
       </c>
@@ -27562,7 +27577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>3645</v>
       </c>
@@ -27570,7 +27585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>3603</v>
       </c>
@@ -27578,7 +27593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>3568</v>
       </c>
@@ -27586,7 +27601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>3646</v>
       </c>
@@ -27594,7 +27609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>3614</v>
       </c>
@@ -27602,7 +27617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>3635</v>
       </c>
@@ -27610,7 +27625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>3647</v>
       </c>
@@ -27618,7 +27633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>3612</v>
       </c>
@@ -27626,7 +27641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>3501</v>
       </c>
@@ -27634,7 +27649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>399</v>
       </c>
@@ -27642,7 +27657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>3648</v>
       </c>
@@ -27650,7 +27665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>3451</v>
       </c>
@@ -27658,7 +27673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>3467</v>
       </c>
@@ -27666,7 +27681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>407</v>
       </c>
@@ -27674,7 +27689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>409</v>
       </c>
@@ -27682,7 +27697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>411</v>
       </c>
@@ -27690,7 +27705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>413</v>
       </c>
@@ -27698,7 +27713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>415</v>
       </c>
@@ -27706,7 +27721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>417</v>
       </c>
@@ -27714,7 +27729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>419</v>
       </c>
@@ -27722,7 +27737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>423</v>
       </c>
@@ -27730,7 +27745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>425</v>
       </c>
@@ -27738,7 +27753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>427</v>
       </c>
@@ -27746,7 +27761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>429</v>
       </c>
@@ -27754,7 +27769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>431</v>
       </c>
@@ -27762,7 +27777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>433</v>
       </c>
@@ -27770,7 +27785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>435</v>
       </c>
@@ -27778,7 +27793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>437</v>
       </c>
@@ -27786,7 +27801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>439</v>
       </c>
@@ -27794,7 +27809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>3471</v>
       </c>
@@ -27802,7 +27817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>441</v>
       </c>
@@ -27810,7 +27825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>443</v>
       </c>
@@ -27818,7 +27833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>445</v>
       </c>
@@ -27826,7 +27841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>447</v>
       </c>
@@ -27834,7 +27849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>449</v>
       </c>
@@ -27842,7 +27857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>451</v>
       </c>
@@ -27850,7 +27865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>453</v>
       </c>
@@ -27858,7 +27873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>455</v>
       </c>
@@ -27866,7 +27881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>457</v>
       </c>
@@ -27874,7 +27889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>459</v>
       </c>
@@ -27882,7 +27897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>3459</v>
       </c>
@@ -27890,7 +27905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>3466</v>
       </c>
@@ -27898,7 +27913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>3450</v>
       </c>
@@ -27906,7 +27921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>3460</v>
       </c>
@@ -27914,7 +27929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>3463</v>
       </c>
@@ -27922,7 +27937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>3449</v>
       </c>
@@ -27930,7 +27945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>461</v>
       </c>
@@ -27938,7 +27953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>465</v>
       </c>
@@ -27946,7 +27961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>469</v>
       </c>
@@ -27954,7 +27969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>471</v>
       </c>
@@ -27962,7 +27977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>473</v>
       </c>
@@ -27970,7 +27985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>475</v>
       </c>
@@ -27978,7 +27993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>477</v>
       </c>
@@ -27986,7 +28001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>479</v>
       </c>
@@ -27994,7 +28009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>3470</v>
       </c>
@@ -28002,7 +28017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>3468</v>
       </c>
@@ -28010,7 +28025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>3469</v>
       </c>
@@ -28018,7 +28033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>3472</v>
       </c>
@@ -28026,7 +28041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>481</v>
       </c>
@@ -28034,7 +28049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>483</v>
       </c>
@@ -28042,7 +28057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>485</v>
       </c>
@@ -28050,7 +28065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>487</v>
       </c>
@@ -28058,7 +28073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>489</v>
       </c>
@@ -28066,7 +28081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>493</v>
       </c>
@@ -28074,7 +28089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>495</v>
       </c>
@@ -28082,7 +28097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>499</v>
       </c>
@@ -28090,7 +28105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>501</v>
       </c>
@@ -28098,7 +28113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>3473</v>
       </c>
@@ -28106,7 +28121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>503</v>
       </c>
@@ -28114,7 +28129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>505</v>
       </c>
@@ -28122,7 +28137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>507</v>
       </c>
@@ -28130,7 +28145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>509</v>
       </c>
@@ -28138,7 +28153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>511</v>
       </c>
@@ -28146,7 +28161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>3474</v>
       </c>
@@ -28154,7 +28169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>3475</v>
       </c>
@@ -28162,7 +28177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>3464</v>
       </c>
@@ -28170,7 +28185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>3465</v>
       </c>
@@ -28178,7 +28193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>523</v>
       </c>
@@ -28186,7 +28201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>525</v>
       </c>
@@ -28194,7 +28209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>527</v>
       </c>
@@ -28202,7 +28217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>529</v>
       </c>
@@ -28210,7 +28225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>531</v>
       </c>
@@ -28218,7 +28233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>533</v>
       </c>
@@ -28226,7 +28241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>535</v>
       </c>
@@ -28234,7 +28249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>539</v>
       </c>
@@ -28242,7 +28257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>541</v>
       </c>
@@ -28250,7 +28265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>543</v>
       </c>
@@ -28258,7 +28273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>547</v>
       </c>
@@ -28266,7 +28281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>549</v>
       </c>
@@ -28274,7 +28289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>551</v>
       </c>
@@ -28282,7 +28297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>553</v>
       </c>
@@ -28290,7 +28305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>555</v>
       </c>
@@ -28298,7 +28313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>557</v>
       </c>
@@ -28306,7 +28321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>559</v>
       </c>
@@ -28314,7 +28329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>561</v>
       </c>
@@ -28322,7 +28337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>563</v>
       </c>
@@ -28330,7 +28345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>565</v>
       </c>
@@ -28338,7 +28353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>567</v>
       </c>
@@ -28346,7 +28361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>3504</v>
       </c>
@@ -28354,7 +28369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>569</v>
       </c>
@@ -28362,7 +28377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>571</v>
       </c>
@@ -28370,7 +28385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>3650</v>
       </c>
@@ -28378,7 +28393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>3477</v>
       </c>
@@ -28386,7 +28401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>3560</v>
       </c>
@@ -28394,7 +28409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>3497</v>
       </c>
@@ -28402,7 +28417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>601</v>
       </c>
@@ -28410,7 +28425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>619</v>
       </c>
@@ -28418,7 +28433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>621</v>
       </c>
@@ -28426,7 +28441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>623</v>
       </c>
@@ -28434,7 +28449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>625</v>
       </c>
@@ -28442,7 +28457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>627</v>
       </c>
@@ -28450,7 +28465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>629</v>
       </c>
@@ -28458,7 +28473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>631</v>
       </c>
@@ -28466,7 +28481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>633</v>
       </c>
@@ -28474,7 +28489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>3652</v>
       </c>
@@ -28482,7 +28497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>635</v>
       </c>
@@ -28490,7 +28505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>641</v>
       </c>
@@ -28498,7 +28513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>643</v>
       </c>
@@ -28506,7 +28521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>645</v>
       </c>
@@ -28514,7 +28529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>3728</v>
       </c>
@@ -28522,7 +28537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>3729</v>
       </c>
@@ -28530,7 +28545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>3733</v>
       </c>
@@ -28538,7 +28553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>3654</v>
       </c>
@@ -28546,7 +28561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>3559</v>
       </c>
@@ -28554,7 +28569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>3514</v>
       </c>
@@ -28562,7 +28577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>3512</v>
       </c>
@@ -28570,7 +28585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>3511</v>
       </c>
@@ -28578,7 +28593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>3513</v>
       </c>
@@ -28586,7 +28601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>3516</v>
       </c>
@@ -28594,7 +28609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>3558</v>
       </c>
@@ -28602,7 +28617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>3518</v>
       </c>
@@ -28610,7 +28625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>3519</v>
       </c>
@@ -28618,7 +28633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>3461</v>
       </c>
@@ -28626,7 +28641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>1945</v>
       </c>
@@ -28634,7 +28649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>3656</v>
       </c>
@@ -28642,7 +28657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>1953</v>
       </c>
@@ -28650,7 +28665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>1955</v>
       </c>
@@ -28658,7 +28673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>1957</v>
       </c>
@@ -28666,7 +28681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>1959</v>
       </c>
@@ -28674,7 +28689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>1961</v>
       </c>
@@ -28682,7 +28697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>1963</v>
       </c>
@@ -28690,7 +28705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>1965</v>
       </c>
@@ -28698,7 +28713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>1967</v>
       </c>
@@ -28706,7 +28721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>1969</v>
       </c>
@@ -28714,7 +28729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>1977</v>
       </c>
@@ -28722,7 +28737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>3657</v>
       </c>
@@ -28730,7 +28745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>1979</v>
       </c>
@@ -28738,7 +28753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>1981</v>
       </c>
@@ -28746,7 +28761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>1985</v>
       </c>
@@ -28754,7 +28769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>3658</v>
       </c>
@@ -28762,7 +28777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>1987</v>
       </c>
@@ -28770,7 +28785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>1989</v>
       </c>
@@ -28778,7 +28793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>1991</v>
       </c>
@@ -28786,7 +28801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>1993</v>
       </c>
@@ -28794,7 +28809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>1995</v>
       </c>
@@ -28802,7 +28817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>1999</v>
       </c>
@@ -28810,7 +28825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>2001</v>
       </c>
@@ -28818,7 +28833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>2003</v>
       </c>
@@ -28826,7 +28841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>2005</v>
       </c>
@@ -28834,7 +28849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>2007</v>
       </c>
@@ -28842,7 +28857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>2011</v>
       </c>
@@ -28850,7 +28865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>2013</v>
       </c>
@@ -28858,7 +28873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>3660</v>
       </c>
@@ -28866,7 +28881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>2019</v>
       </c>
@@ -28874,7 +28889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>2023</v>
       </c>
@@ -28882,7 +28897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>2031</v>
       </c>
@@ -28890,7 +28905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>2033</v>
       </c>
@@ -28898,7 +28913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>3662</v>
       </c>
@@ -28906,7 +28921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>3663</v>
       </c>
@@ -28914,7 +28929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>2039</v>
       </c>
@@ -28922,7 +28937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>3665</v>
       </c>
@@ -28930,7 +28945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>2041</v>
       </c>
@@ -28938,7 +28953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>2043</v>
       </c>
@@ -28946,7 +28961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>3666</v>
       </c>
@@ -28954,7 +28969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>2047</v>
       </c>
@@ -28962,7 +28977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>2049</v>
       </c>
@@ -28970,7 +28985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>2055</v>
       </c>
@@ -28978,7 +28993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>3655</v>
       </c>
@@ -28986,7 +29001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>2059</v>
       </c>
@@ -28994,7 +29009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>2061</v>
       </c>
@@ -29002,7 +29017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>2067</v>
       </c>
@@ -29010,7 +29025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>3670</v>
       </c>
@@ -29018,7 +29033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>2069</v>
       </c>
@@ -29026,7 +29041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>2071</v>
       </c>
@@ -29034,7 +29049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>2073</v>
       </c>
@@ -29042,7 +29057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>2077</v>
       </c>
@@ -29050,7 +29065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>2079</v>
       </c>
@@ -29058,7 +29073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>2083</v>
       </c>
@@ -29066,7 +29081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>2085</v>
       </c>
@@ -29074,7 +29089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>2087</v>
       </c>
@@ -29082,7 +29097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>2089</v>
       </c>
@@ -29090,7 +29105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>3671</v>
       </c>
@@ -29098,7 +29113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>2091</v>
       </c>
@@ -29106,7 +29121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>2093</v>
       </c>
@@ -29114,7 +29129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>2099</v>
       </c>
@@ -29122,7 +29137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>2101</v>
       </c>
@@ -29130,7 +29145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>2103</v>
       </c>
@@ -29138,7 +29153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>2113</v>
       </c>
@@ -29146,7 +29161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>3672</v>
       </c>
@@ -29154,7 +29169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>2121</v>
       </c>
@@ -29162,7 +29177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>2129</v>
       </c>
@@ -29170,7 +29185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>3673</v>
       </c>
@@ -29178,7 +29193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>2137</v>
       </c>
@@ -29186,7 +29201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>2141</v>
       </c>
@@ -29194,7 +29209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>2145</v>
       </c>
@@ -29202,7 +29217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>2153</v>
       </c>
@@ -29210,7 +29225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>2165</v>
       </c>
@@ -29218,7 +29233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>2169</v>
       </c>
@@ -29226,7 +29241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>3674</v>
       </c>
@@ -29234,7 +29249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>3664</v>
       </c>
@@ -29242,7 +29257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>3676</v>
       </c>
@@ -29250,7 +29265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>3675</v>
       </c>
@@ -29258,7 +29273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>2173</v>
       </c>
@@ -29266,7 +29281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>2177</v>
       </c>
@@ -29274,7 +29289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>3667</v>
       </c>
@@ -29282,7 +29297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>2189</v>
       </c>
@@ -29290,7 +29305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>2193</v>
       </c>
@@ -29298,7 +29313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>3677</v>
       </c>
@@ -29306,7 +29321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>2203</v>
       </c>
@@ -29314,7 +29329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>2205</v>
       </c>
@@ -29322,7 +29337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>2207</v>
       </c>
@@ -29330,7 +29345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>2211</v>
       </c>
@@ -29338,7 +29353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>2213</v>
       </c>
@@ -29346,7 +29361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>2215</v>
       </c>
@@ -29354,7 +29369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>2219</v>
       </c>
@@ -29362,7 +29377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>2221</v>
       </c>
@@ -29370,7 +29385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>3678</v>
       </c>
@@ -29378,7 +29393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>2263</v>
       </c>
@@ -29386,7 +29401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>2271</v>
       </c>
@@ -29394,7 +29409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>2275</v>
       </c>
@@ -29402,7 +29417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>2323</v>
       </c>
@@ -29410,7 +29425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>3659</v>
       </c>
@@ -29418,7 +29433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>2649</v>
       </c>
@@ -29426,7 +29441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>2651</v>
       </c>
@@ -29434,7 +29449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>2653</v>
       </c>
@@ -29442,7 +29457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>3661</v>
       </c>
@@ -29450,7 +29465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>2657</v>
       </c>
@@ -29458,7 +29473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>2659</v>
       </c>
@@ -29466,7 +29481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>2665</v>
       </c>
@@ -29474,7 +29489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>2667</v>
       </c>
@@ -29482,7 +29497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>2673</v>
       </c>
@@ -29490,7 +29505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>2675</v>
       </c>
@@ -29498,7 +29513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>2677</v>
       </c>
@@ -29506,7 +29521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>2679</v>
       </c>
@@ -29514,7 +29529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>3669</v>
       </c>
@@ -29522,7 +29537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>2683</v>
       </c>
@@ -29530,7 +29545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>2685</v>
       </c>
@@ -29538,7 +29553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>2695</v>
       </c>
@@ -29546,7 +29561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>2697</v>
       </c>
@@ -29554,7 +29569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>3680</v>
       </c>
@@ -29562,7 +29577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>2703</v>
       </c>
@@ -29570,7 +29585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>2705</v>
       </c>
@@ -29578,7 +29593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>3668</v>
       </c>
@@ -29586,7 +29601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>2717</v>
       </c>
@@ -29594,7 +29609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>2721</v>
       </c>
@@ -29602,7 +29617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>2725</v>
       </c>
@@ -29610,7 +29625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>741</v>
       </c>
@@ -29618,7 +29633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>751</v>
       </c>
@@ -29626,7 +29641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>753</v>
       </c>
@@ -29634,7 +29649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>769</v>
       </c>
@@ -29642,7 +29657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>775</v>
       </c>
@@ -29650,7 +29665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>873</v>
       </c>
@@ -29658,7 +29673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>1177</v>
       </c>
@@ -29666,7 +29681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>3444</v>
       </c>
@@ -29674,7 +29689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>3713</v>
       </c>
@@ -29682,7 +29697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>3679</v>
       </c>
@@ -29690,7 +29705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>3563</v>
       </c>
@@ -29698,7 +29713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>3681</v>
       </c>
@@ -29706,7 +29721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>3538</v>
       </c>
@@ -29714,7 +29729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>3539</v>
       </c>
@@ -29722,7 +29737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>3540</v>
       </c>
@@ -29730,7 +29745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>3533</v>
       </c>
@@ -29738,7 +29753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>3534</v>
       </c>
@@ -29746,7 +29761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>3536</v>
       </c>
@@ -29754,7 +29769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>3682</v>
       </c>
@@ -29762,7 +29777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>3605</v>
       </c>
@@ -29770,7 +29785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>3551</v>
       </c>
@@ -29778,7 +29793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>3606</v>
       </c>
@@ -29786,7 +29801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>3550</v>
       </c>
@@ -29794,7 +29809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>3554</v>
       </c>
@@ -29802,7 +29817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>3555</v>
       </c>
@@ -29810,7 +29825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>3562</v>
       </c>
@@ -29818,7 +29833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>3566</v>
       </c>
@@ -29826,7 +29841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>3651</v>
       </c>
@@ -29834,7 +29849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>3653</v>
       </c>
@@ -29842,7 +29857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>3683</v>
       </c>
@@ -29850,7 +29865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>3684</v>
       </c>
@@ -29858,7 +29873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>3685</v>
       </c>
@@ -29866,7 +29881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>3686</v>
       </c>
@@ -29874,7 +29889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>3687</v>
       </c>
@@ -29882,7 +29897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>3506</v>
       </c>
@@ -29890,7 +29905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>2729</v>
       </c>
@@ -29898,7 +29913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>2733</v>
       </c>
@@ -29906,7 +29921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>2735</v>
       </c>
@@ -29914,7 +29929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>2739</v>
       </c>
@@ -29922,7 +29937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>2743</v>
       </c>
@@ -29930,7 +29945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>2749</v>
       </c>
@@ -29938,7 +29953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>2757</v>
       </c>
@@ -29946,7 +29961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>2759</v>
       </c>
@@ -29954,7 +29969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>2761</v>
       </c>
@@ -29962,7 +29977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>2763</v>
       </c>
@@ -29970,7 +29985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>2765</v>
       </c>
@@ -29978,7 +29993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>2767</v>
       </c>
@@ -29986,7 +30001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>2813</v>
       </c>
@@ -29994,7 +30009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>2837</v>
       </c>
@@ -30002,7 +30017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>2859</v>
       </c>
@@ -30010,7 +30025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>2894</v>
       </c>
@@ -30018,7 +30033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>2928</v>
       </c>
@@ -30026,7 +30041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>2966</v>
       </c>
@@ -30034,7 +30049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>2980</v>
       </c>
@@ -30042,7 +30057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>3476</v>
       </c>
@@ -30050,7 +30065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>2988</v>
       </c>
@@ -30058,7 +30073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>2990</v>
       </c>
@@ -30066,7 +30081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>2994</v>
       </c>
@@ -30074,7 +30089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>2996</v>
       </c>
@@ -30082,7 +30097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>2998</v>
       </c>
@@ -30090,7 +30105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>3000</v>
       </c>
@@ -30098,7 +30113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>3002</v>
       </c>
@@ -30106,7 +30121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>3004</v>
       </c>
@@ -30114,7 +30129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>3012</v>
       </c>
@@ -30122,7 +30137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>3014</v>
       </c>
@@ -30130,7 +30145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>3020</v>
       </c>
@@ -30138,7 +30153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>3022</v>
       </c>
@@ -30146,7 +30161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>3024</v>
       </c>
@@ -30154,7 +30169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>3026</v>
       </c>
@@ -30162,7 +30177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>3028</v>
       </c>
@@ -30170,7 +30185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>3030</v>
       </c>
@@ -30178,7 +30193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>3503</v>
       </c>
@@ -30186,7 +30201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>3044</v>
       </c>
@@ -30194,7 +30209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>3046</v>
       </c>
@@ -30202,7 +30217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>3048</v>
       </c>
@@ -30210,7 +30225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>3050</v>
       </c>
@@ -30218,7 +30233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>3052</v>
       </c>
@@ -30226,7 +30241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>3054</v>
       </c>
@@ -30234,7 +30249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>3056</v>
       </c>
@@ -30242,7 +30257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>3058</v>
       </c>
@@ -30250,7 +30265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>3688</v>
       </c>
@@ -30258,7 +30273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>3689</v>
       </c>
@@ -30266,7 +30281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>3066</v>
       </c>
@@ -30274,7 +30289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>3068</v>
       </c>
@@ -30282,7 +30297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>3070</v>
       </c>
@@ -30290,7 +30305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>3072</v>
       </c>
@@ -30298,7 +30313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>3082</v>
       </c>
@@ -30306,7 +30321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>3734</v>
       </c>
@@ -30314,7 +30329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>3690</v>
       </c>
@@ -30322,7 +30337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>3691</v>
       </c>
@@ -30330,7 +30345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>3611</v>
       </c>
@@ -30338,7 +30353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>3712</v>
       </c>
@@ -30346,7 +30361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>3087</v>
       </c>
@@ -30354,7 +30369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>3693</v>
       </c>
@@ -30362,7 +30377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>3694</v>
       </c>
@@ -30370,7 +30385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>3692</v>
       </c>
@@ -30378,7 +30393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>3696</v>
       </c>
@@ -30386,7 +30401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>3699</v>
       </c>
@@ -30394,7 +30409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>3700</v>
       </c>
@@ -30402,7 +30417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>3701</v>
       </c>
@@ -30410,7 +30425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>3697</v>
       </c>
@@ -30418,7 +30433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>3698</v>
       </c>
@@ -30426,7 +30441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>3695</v>
       </c>
@@ -30434,7 +30449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>3702</v>
       </c>
@@ -30442,7 +30457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>3496</v>
       </c>
@@ -30450,7 +30465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>3095</v>
       </c>
@@ -30458,7 +30473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>3097</v>
       </c>
@@ -30466,7 +30481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>3099</v>
       </c>
@@ -30474,7 +30489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>3101</v>
       </c>
@@ -30482,7 +30497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>3103</v>
       </c>
@@ -30490,7 +30505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>3105</v>
       </c>
@@ -30498,7 +30513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>3107</v>
       </c>
@@ -30506,7 +30521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>3109</v>
       </c>
@@ -30514,7 +30529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>3111</v>
       </c>
@@ -30522,7 +30537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>3113</v>
       </c>
@@ -30530,7 +30545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>3115</v>
       </c>
@@ -30538,7 +30553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>3117</v>
       </c>
@@ -30546,7 +30561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>3123</v>
       </c>
@@ -30554,7 +30569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>3125</v>
       </c>
@@ -30562,7 +30577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>3131</v>
       </c>
@@ -30570,7 +30585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>3457</v>
       </c>
@@ -30578,7 +30593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>3607</v>
       </c>
@@ -30586,7 +30601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>3608</v>
       </c>
@@ -30594,7 +30609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>3571</v>
       </c>
@@ -30602,7 +30617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>3609</v>
       </c>
@@ -30610,7 +30625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>3610</v>
       </c>
@@ -30618,7 +30633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>3143</v>
       </c>
@@ -30626,7 +30641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>3145</v>
       </c>
@@ -30634,7 +30649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>3147</v>
       </c>
@@ -30642,7 +30657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>3149</v>
       </c>
@@ -30650,7 +30665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>3151</v>
       </c>
@@ -30658,7 +30673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>3152</v>
       </c>
@@ -30666,7 +30681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>3154</v>
       </c>
@@ -30674,7 +30689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>3156</v>
       </c>
@@ -30682,7 +30697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>3541</v>
       </c>
@@ -30690,7 +30705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>3732</v>
       </c>
@@ -30698,7 +30713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>3158</v>
       </c>
@@ -30706,7 +30721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>3703</v>
       </c>
@@ -30714,7 +30729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>3616</v>
       </c>
@@ -30722,7 +30737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>3704</v>
       </c>
@@ -30730,7 +30745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>3641</v>
       </c>
@@ -30738,7 +30753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>3649</v>
       </c>
@@ -30746,7 +30761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>3705</v>
       </c>
@@ -30754,7 +30769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>3706</v>
       </c>
@@ -30762,7 +30777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>3505</v>
       </c>
@@ -30770,7 +30785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>3707</v>
       </c>
@@ -30778,7 +30793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>3170</v>
       </c>
@@ -30786,7 +30801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>3176</v>
       </c>
@@ -30794,7 +30809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>3178</v>
       </c>
@@ -30802,7 +30817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>3182</v>
       </c>
@@ -30810,7 +30825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>3184</v>
       </c>
@@ -30818,7 +30833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>3206</v>
       </c>
@@ -30826,7 +30841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>3708</v>
       </c>
@@ -30834,7 +30849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>3530</v>
       </c>
@@ -30842,7 +30857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>3502</v>
       </c>
@@ -30850,7 +30865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>3372</v>
       </c>
@@ -30858,7 +30873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>3374</v>
       </c>
@@ -30866,7 +30881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>3376</v>
       </c>
@@ -30874,7 +30889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>3710</v>
       </c>
@@ -30882,7 +30897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>3711</v>
       </c>
@@ -30890,7 +30905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>3380</v>
       </c>
@@ -30898,7 +30913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>3382</v>
       </c>
@@ -30906,7 +30921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>3494</v>
       </c>
@@ -30914,7 +30929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>3386</v>
       </c>
@@ -30922,7 +30937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>3388</v>
       </c>
@@ -30930,7 +30945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>3390</v>
       </c>
@@ -30938,7 +30953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>3392</v>
       </c>
@@ -30946,7 +30961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>3394</v>
       </c>
@@ -30954,7 +30969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>3446</v>
       </c>
@@ -30962,7 +30977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>3396</v>
       </c>
@@ -30970,7 +30985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>3398</v>
       </c>
@@ -30978,7 +30993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>3400</v>
       </c>
@@ -30986,7 +31001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>3509</v>
       </c>
@@ -30994,7 +31009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>3528</v>
       </c>
@@ -31002,7 +31017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>3529</v>
       </c>
@@ -31010,7 +31025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>3531</v>
       </c>
@@ -31018,7 +31033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>3507</v>
       </c>
@@ -31026,7 +31041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>3404</v>
       </c>
@@ -31034,7 +31049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>3709</v>
       </c>
@@ -31042,7 +31057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>3432</v>
       </c>
@@ -31050,7 +31065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>3517</v>
       </c>
@@ -31058,7 +31073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>3552</v>
       </c>
@@ -31066,7 +31081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>3532</v>
       </c>
@@ -31074,7 +31089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>3561</v>
       </c>
@@ -31082,7 +31097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>3557</v>
       </c>
@@ -31090,7 +31105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>3510</v>
       </c>
@@ -31098,7 +31113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>3553</v>
       </c>
@@ -31106,7 +31121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>3547</v>
       </c>
@@ -31114,7 +31129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>3565</v>
       </c>
@@ -31122,7 +31137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>3522</v>
       </c>
@@ -31130,7 +31145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>3537</v>
       </c>
@@ -31138,7 +31153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>3556</v>
       </c>
@@ -31146,7 +31161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>3545</v>
       </c>
@@ -31154,7 +31169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>3521</v>
       </c>
@@ -31162,7 +31177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>3515</v>
       </c>
@@ -31170,7 +31185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>3544</v>
       </c>
@@ -31178,7 +31193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>3548</v>
       </c>
@@ -31186,7 +31201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>3526</v>
       </c>
@@ -31194,7 +31209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>3564</v>
       </c>
@@ -31202,7 +31217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>3535</v>
       </c>
@@ -31210,7 +31225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>3523</v>
       </c>
@@ -31218,7 +31233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>3525</v>
       </c>
@@ -31226,7 +31241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>3549</v>
       </c>
@@ -31234,7 +31249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>3524</v>
       </c>
@@ -31242,7 +31257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>3527</v>
       </c>
@@ -31250,7 +31265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>3436</v>
       </c>
@@ -31258,7 +31273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>3520</v>
       </c>
@@ -31266,7 +31281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>3438</v>
       </c>
@@ -31274,7 +31289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>3508</v>
       </c>
@@ -31282,7 +31297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>3443</v>
       </c>
@@ -31290,7 +31305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>3447</v>
       </c>
@@ -31298,7 +31313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>3481</v>
       </c>
@@ -31306,7 +31321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>3448</v>
       </c>
@@ -31314,7 +31329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>3440</v>
       </c>
@@ -31322,7 +31337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>3454</v>
       </c>
@@ -31330,7 +31345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>3718</v>
       </c>
@@ -31338,7 +31353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>3456</v>
       </c>
@@ -31346,7 +31361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>3491</v>
       </c>
@@ -31354,7 +31369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>3717</v>
       </c>
@@ -31362,7 +31377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>3478</v>
       </c>
@@ -31370,7 +31385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>3486</v>
       </c>
@@ -31378,7 +31393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>3484</v>
       </c>
@@ -31386,7 +31401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>3488</v>
       </c>
@@ -31394,7 +31409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>3453</v>
       </c>
@@ -31402,7 +31417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>3485</v>
       </c>
@@ -31410,7 +31425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>3487</v>
       </c>
@@ -31418,7 +31433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>3480</v>
       </c>
@@ -31426,7 +31441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>3735</v>
       </c>
@@ -31434,7 +31449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>3483</v>
       </c>
@@ -31442,7 +31457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>3479</v>
       </c>
@@ -31450,7 +31465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>3492</v>
       </c>
@@ -31458,7 +31473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>3489</v>
       </c>
@@ -31466,7 +31481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>3716</v>
       </c>
@@ -31474,7 +31489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>3462</v>
       </c>
@@ -31482,7 +31497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>3490</v>
       </c>
@@ -31490,7 +31505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>3458</v>
       </c>
@@ -31498,7 +31513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>3482</v>
       </c>
@@ -31506,7 +31521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>3455</v>
       </c>
@@ -31514,7 +31529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>3546</v>
       </c>
@@ -31522,7 +31537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>3543</v>
       </c>
@@ -31530,7 +31545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>3452</v>
       </c>
@@ -31538,7 +31553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>3722</v>
       </c>
@@ -31546,7 +31561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>3442</v>
       </c>
